--- a/public/StudyHub_Complete_Data.xlsx
+++ b/public/StudyHub_Complete_Data.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Subjects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Topics" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Topic_Sections" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Learning_Objectives" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Key_Terms" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study_Content" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formulas" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quiz_Questions" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Achievements" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="App_Settings" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Subjects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Topics" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Topic_Sections" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Learning_Objectives" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Key_Terms" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Study_Content" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Formulas" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Quiz_Questions" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Achievements" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -511,7 +510,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>subj-001</t>
+          <t>phys-001</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -558,7 +557,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>subj-002</t>
+          <t>math-001</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -605,7 +604,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>subj-003</t>
+          <t>chem-001</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -652,7 +651,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>subj-004</t>
+          <t>bio-001</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -693,273 +692,6 @@
       <c r="I5" s="2" t="inlineStr">
         <is>
           <t>shadow-violet-500/20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="43" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>setting_key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>setting_value</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>last_updated</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>app_name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>StudyHub Grade 8</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Display name of the application</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>welcome_message</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Welcome to your learning journey!</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Message shown on first login</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>max_daily_xp</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Maximum XP earnable per day</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>quiz_time_limit</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Quiz time limit in minutes (0 = no limit)</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>enable_sound</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Enable sound effects</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>enable_dark_mode</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Allow dark mode toggle</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>xp_per_correct_answer</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>XP awarded per correct quiz answer</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>streak_bonus_multiplier</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>XP multiplier for streak bonus</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>support_email</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>support@studyhub.com</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Support contact email</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>1.0.0</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>App version</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
         </is>
       </c>
     </row>
@@ -974,7 +706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -982,9 +714,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
   </cols>
@@ -1019,7 +751,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -1029,24 +761,20 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Newton's Laws of Motion</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Newton's Laws</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -1056,24 +784,20 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Work and Energy</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Work &amp; Energy</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>topic-003</t>
+          <t>phys-t3</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -1083,24 +807,20 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Light and Optics</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>Electricity</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>topic-004</t>
+          <t>math-t1</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1110,24 +830,20 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Exponents and Powers</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Algebraic Expressions</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>topic-005</t>
+          <t>math-t2</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -1137,72 +853,175 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Geometry: Triangles</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>math-t3</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>chemistry</t>
+          <t>math</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Atomic Structure</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>topic-007</t>
+          <t>chem-t1</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
+          <t>chemistry</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Atomic Structure</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>chemistry</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>The Periodic Table</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>chemistry</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Chemical Bonding</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
           <t>biology</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Cell Structure</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Cell Biology</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>bio-t2</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>biology</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Genetics &amp; DNA</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>biology</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Ecosystems</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1216,7 +1035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1225,8 +1044,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
@@ -1267,17 +1086,17 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>sec-001</t>
+          <t>phys-t1-s1</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Learning Objectives</t>
+          <t>Objectives</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -1285,10 +1104,8 @@
           <t>Target</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
@@ -1299,17 +1116,17 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>sec-002</t>
+          <t>phys-t1-s2</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Introduction to Forces</t>
+          <t>Introduction</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -1317,10 +1134,8 @@
           <t>BookOpen</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="E3" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
@@ -1331,17 +1146,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>sec-003</t>
+          <t>phys-t1-s3</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Newton's First Law</t>
+          <t>First Law (Inertia)</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -1349,10 +1164,8 @@
           <t>Zap</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
@@ -1363,28 +1176,26 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>sec-004</t>
+          <t>phys-t1-s4</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Newton's Second Law</t>
+          <t>Second Law (F=ma)</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Zap</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Calculator</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
@@ -1395,17 +1206,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>sec-005</t>
+          <t>phys-t1-s5</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Newton's Third Law</t>
+          <t>Third Law (Action-Reaction)</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -1413,10 +1224,8 @@
           <t>Zap</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="E6" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
@@ -1427,156 +1236,146 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>sec-006</t>
+          <t>phys-t1-s6</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Real-World Applications</t>
+          <t>Assessment</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Globe</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>HelpCircle</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>applications</t>
+          <t>quiz</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>sec-007</t>
+          <t>phys-t2-s1</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Topic Quiz</t>
+          <t>Objectives</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>HelpCircle</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>quiz</t>
+          <t>objectives</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>sec-008</t>
+          <t>phys-t2-s2</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Learning Objectives</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Target</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Hammer</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>objectives</t>
+          <t>content</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>sec-009</t>
+          <t>phys-t2-s3</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>What is Work?</t>
+          <t>Energy Types</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>BookOpen</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Zap</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>intro</t>
+          <t>content</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>sec-010</t>
+          <t>phys-t2-s4</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Types of Energy</t>
+          <t>Conservation</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Zap</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>RefreshCw</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
@@ -1587,220 +1386,206 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>sec-011</t>
+          <t>phys-t2-s5</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Conservation of Energy</t>
+          <t>Quiz</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Zap</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>HelpCircle</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>quiz</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>sec-012</t>
+          <t>phys-t3-s1</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t3</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Objectives</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Zap</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>objectives</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>sec-013</t>
+          <t>phys-t3-s2</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t3</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Applications</t>
+          <t>Circuits</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Globe</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>Zap</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>applications</t>
+          <t>content</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>sec-014</t>
+          <t>phys-t3-s3</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t3</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Topic Quiz</t>
+          <t>Ohm's Law</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>HelpCircle</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>Calculator</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>quiz</t>
+          <t>content</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>sec-015</t>
+          <t>phys-t3-s4</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>phys-t3</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Learning Objectives</t>
+          <t>Quiz</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Target</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>HelpCircle</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>objectives</t>
+          <t>quiz</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>sec-016</t>
+          <t>math-t1-s1</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>math-t1</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Introduction to Atoms</t>
+          <t>Objectives</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>BookOpen</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>intro</t>
+          <t>objectives</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>sec-017</t>
+          <t>math-t1-s2</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>math-t1</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Subatomic Particles</t>
+          <t>Basics</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>FlaskConical</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>BookOpen</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
@@ -1811,28 +1596,26 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>sec-018</t>
+          <t>math-t1-s3</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>math-t1</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Electron Configuration</t>
+          <t>Simplifying</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>FlaskConical</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Minimize2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
@@ -1843,94 +1626,988 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>sec-019</t>
+          <t>math-t1-s4</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>math-t1</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Atomic Models</t>
+          <t>Quiz</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>FlaskConical</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>HelpCircle</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>quiz</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>sec-020</t>
+          <t>math-t2-s1</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>math-t2</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Applications</t>
+          <t>Objectives</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Globe</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>applications</t>
+          <t>objectives</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>sec-021</t>
+          <t>math-t2-s2</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>math-t2</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Topic Quiz</t>
+          <t>Types</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
+          <t>Triangle</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>math-t2-s3</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>math-t2</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Pythagoras</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Calculator</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>math-t2-s4</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>math-t2</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Quiz</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
           <t>HelpCircle</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="E24" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>quiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>math-t3-s1</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>math-t3</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Objectives</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>objectives</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>math-t3-s2</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>math-t3</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>HelpCircle</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>math-t3-s3</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>math-t3</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Calculating</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Calculator</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>math-t3-s4</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>math-t3</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Quiz</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>HelpCircle</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>quiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>chem-t1-s1</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>chem-t1</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Objectives</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>objectives</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>chem-t1-s2</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>chem-t1</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>The Atom</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Atom</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>chem-t1-s3</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>chem-t1</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Subatomic Particles</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Disc</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>chem-t1-s4</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>chem-t1</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Quiz</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>HelpCircle</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>quiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2-s1</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Objectives</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>objectives</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2-s2</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Grid</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2-s3</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Groups &amp; Periods</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>ArrowDown</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2-s4</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Quiz</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>HelpCircle</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>quiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3-s1</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Objectives</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>objectives</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3-s2</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Why Bond?</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3-s3</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Ionic vs Covalent</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>GitCommit</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3-s4</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Quiz</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>HelpCircle</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>quiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1-s1</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Objectives</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>objectives</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1-s2</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Cell Theory</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>BookOpen</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1-s3</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Organelles</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>Circle</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1-s4</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Quiz</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>HelpCircle</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>quiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>bio-t2-s1</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>bio-t2</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Objectives</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>objectives</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>bio-t2-s2</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>bio-t2</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>DNA</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>Dna</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>bio-t2-s3</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>bio-t2</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Heredity</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>GitBranch</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>bio-t2-s4</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>bio-t2</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Quiz</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>HelpCircle</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>quiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3-s1</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Objectives</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>objectives</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3-s2</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Components</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>Globe</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3-s3</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Food Webs</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>Share2</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3-s4</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Quiz</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>HelpCircle</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>quiz</t>
         </is>
@@ -1947,7 +2624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1955,8 +2632,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1986,265 +2663,521 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>obj-001</t>
+          <t>obj-phys-t1-1</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Explain the concept of inertia and how it relates to mass</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Define inertia and its relationship to mass</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>obj-002</t>
+          <t>obj-phys-t1-2</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Apply the formula F = ma to solve real-world problems</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Apply F=ma to solve problems</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>obj-003</t>
+          <t>obj-phys-t1-3</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Identify action-reaction force pairs in various scenarios</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>Identify action-reaction pairs</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>obj-004</t>
+          <t>obj-phys-t2-1</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Analyze motion using all three of Newton's Laws</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Define Work in physics</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>obj-005</t>
+          <t>obj-phys-t2-2</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Define work and calculate work done by a force</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Distinguish between kinetic and potential energy</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>obj-006</t>
+          <t>obj-phys-t2-3</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Distinguish between kinetic and potential energy</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Apply conservation of energy principle</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>obj-007</t>
+          <t>obj-phys-t3-1</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t3</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Apply the law of conservation of energy</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>Understand circuit components</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>obj-008</t>
+          <t>obj-phys-t3-2</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t3</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Calculate power and understand its significance</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Calculate using Ohm's Law</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>obj-009</t>
+          <t>obj-math-t1-1</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>math-t1</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Describe the structure of an atom</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Identify variables and coefficients</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>obj-010</t>
+          <t>obj-math-t1-2</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>math-t1</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Identify protons, neutrons, and electrons</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Simplify like terms</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>obj-011</t>
+          <t>obj-math-t2-1</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>math-t2</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Explain electron configuration in shells</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>Classify triangles</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>obj-012</t>
+          <t>obj-math-t2-2</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>math-t2</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Compare different atomic models</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Use Pythagorean theorem</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>obj-math-t3-1</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>math-t3</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Understand probability scale</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>obj-math-t3-2</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>math-t3</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Calculate simple probabilities</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>obj-chem-t1-1</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>chem-t1</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Describe the structure of an atom</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>obj-chem-t1-2</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>chem-t1</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Identify protons, neutrons, electrons</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>obj-chem-t2-1</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Read the Periodic Table</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>obj-chem-t2-2</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Understand Groups and Periods</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>obj-chem-t3-1</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Explain why atoms bond</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>obj-chem-t3-2</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Distinguish ionic and covalent bonds</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>obj-bio-t1-1</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>State Cell Theory</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>obj-bio-t1-2</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Identify function of nucleus, mitochondria, cell membrane</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>obj-bio-t2-1</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>bio-t2</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Describe DNA structure</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>obj-bio-t2-2</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>bio-t2</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Understand basic inheritance</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>obj-bio-t3-1</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Define ecosystem</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>obj-bio-t3-2</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Trace energy flow in food webs</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2258,7 +3191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2266,8 +3199,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
   </cols>
@@ -2297,342 +3230,342 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>term-001</t>
+          <t>term-phys-t1-1</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Force</t>
+          <t>Inertia</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>A push or pull on an object, measured in Newtons (N)</t>
+          <t>Resistance of any physical object to any change in its velocity</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>term-002</t>
+          <t>term-phys-t1-2</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Mass</t>
+          <t>Force</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>The amount of matter in an object, measured in kilograms (kg)</t>
+          <t>A push or pull upon an object resulting from interaction with another object</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>term-003</t>
+          <t>term-phys-t1-3</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Acceleration</t>
+          <t>Mass</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>The rate of change of velocity, measured in m/s²</t>
+          <t>A measure of the amount of matter in an object</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>term-004</t>
+          <t>term-phys-t2-1</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Inertia</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>The tendency of an object to resist changes in its state of motion</t>
+          <t>Force applied over a distance (Joules)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>term-005</t>
+          <t>term-phys-t2-2</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Newton (N)</t>
+          <t>Kinetic Energy</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>The SI unit of force, equal to kg·m/s²</t>
+          <t>Energy of motion</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>term-006</t>
+          <t>term-phys-t2-3</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Net Force</t>
+          <t>Potential Energy</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>The sum of all forces acting on an object</t>
+          <t>Stored energy due to position or state</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>term-007</t>
+          <t>term-phys-t3-1</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t3</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Voltage</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Energy transferred when a force moves an object, W = F × d</t>
+          <t>Electrical potential difference (Volts)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>term-008</t>
+          <t>term-phys-t3-2</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t3</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Kinetic Energy</t>
+          <t>Current</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Energy of motion, KE = ½mv²</t>
+          <t>Flow of electric charge (Amps)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>term-009</t>
+          <t>term-phys-t3-3</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t3</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Potential Energy</t>
+          <t>Resistance</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Stored energy due to position, PE = mgh</t>
+          <t>Opposition to current flow (Ohms)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>term-010</t>
+          <t>term-math-t1-1</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>math-t1</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Rate of doing work, P = W/t, measured in Watts</t>
+          <t>A letter representing an unknown number</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>term-011</t>
+          <t>term-math-t1-2</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>math-t1</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Joule (J)</t>
+          <t>Coefficient</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>The SI unit of energy and work</t>
+          <t>Number multiplying a variable</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>term-012</t>
+          <t>term-math-t2-1</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>math-t2</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Atom</t>
+          <t>Hypotenuse</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>The smallest unit of an element that retains its properties</t>
+          <t>Longest side of a right triangle</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>term-013</t>
+          <t>term-math-t2-2</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>math-t2</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Proton</t>
+          <t>Isosceles</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Positively charged particle in the nucleus</t>
+          <t>Triangle with 2 equal sides</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>term-014</t>
+          <t>term-math-t3-1</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>math-t3</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Neutron</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Neutral particle in the nucleus</t>
+          <t>An outcome or set of outcomes</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>term-015</t>
+          <t>term-math-t3-2</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>math-t3</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Electron</t>
+          <t>Sample Space</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Negatively charged particle orbiting the nucleus</t>
+          <t>Set of all possible outcomes</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>term-016</t>
+          <t>term-chem-t1-1</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>chem-t1</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -2642,29 +3575,249 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>The central core of an atom containing protons and neutrons</t>
+          <t>Central part of atom containing protons/neutrons</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>term-017</t>
+          <t>term-chem-t1-2</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>chem-t1</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>Electron Shell</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Region where electrons orbit</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>term-chem-t2-1</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>Atomic Number</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Number of protons in an atom, defines the element</t>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Number of protons in an atom</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>term-chem-t2-2</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Pure substance of one type of atom</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>term-chem-t3-1</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Ion</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Atom with a charge (lost or gained electrons)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>term-chem-t3-2</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Molecule</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Group of atoms bonded together</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>term-bio-t1-1</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Organelle</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Specialized structure within a cell</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>term-bio-t1-2</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Prokaryote</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Simple cell without nucleus (bacteria)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>term-bio-t2-1</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>bio-t2</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Unit of heredity</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>term-bio-t2-2</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>bio-t2</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Allele</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Variant form of a gene</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>term-bio-t3-1</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Biotic</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Living components (plants, animals)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>term-bio-t3-2</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Abiotic</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Non-living components (sun, water, soil)</t>
         </is>
       </c>
     </row>
@@ -2679,7 +3832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2687,12 +3840,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="29" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="45" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2726,16 +3881,26 @@
           <t>order_index</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>image_url</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>video_url</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>cont-001</t>
+          <t>cont-phys-t1-1</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>sec-003</t>
+          <t>phys-t1-s2</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -2745,29 +3910,33 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>The Law of Inertia</t>
+          <t>The Foundations of Dynamics</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Newton's First Law states that an object at rest stays at rest, and an object in motion stays in motion with the same speed and direction, unless acted upon by an unbalanced force.</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Isaac Newton's three laws of motion describe the relationship between the motion of an object and the forces acting on it.</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1451187580459-43490279c0fa?w=800</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>cont-002</t>
+          <t>cont-phys-t1-2</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>sec-003</t>
+          <t>phys-t1-s3</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -2777,349 +3946,357 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Think About It</t>
+          <t>Law of Inertia</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Imagine a hockey puck on ice. Once you hit it, it keeps sliding because there is very little friction to stop it. This is inertia in action!</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>An object at rest stays at rest and an object in motion stays in motion unless acted upon by an unbalanced force.</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>cont-003</t>
+          <t>cont-phys-t1-3</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>sec-003</t>
+          <t>phys-t1-s3</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>warning</t>
+          <t>real_world</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Common Mistake</t>
+          <t>Seatbelts</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Students often think objects naturally slow down on their own. Actually, they slow down because of friction - an external force. In space, objects would keep moving forever!</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>When a car stops suddenly, your body keeps moving forward due to inertia. Seatbelts provide the unbalanced force to stop you.</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>cont-004</t>
+          <t>cont-phys-t1-4</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>sec-003</t>
+          <t>phys-t1-s4</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>real_world</t>
+          <t>formula</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Seatbelts</t>
+          <t>The Equation</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>When a car stops suddenly, your body wants to keep moving forward (inertia). That's why we wear seatbelts - they provide the force needed to stop you safely.</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>F = ma</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>cont-005</t>
+          <t>cont-phys-t1-5</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>sec-004</t>
+          <t>phys-t1-s4</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Force, Mass, and Acceleration</t>
+          <t>Explanation</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Newton's Second Law describes the relationship between force, mass, and acceleration. It tells us that the acceleration of an object depends on the net force acting on it and the object's mass.</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Force equals mass times acceleration. The more mass an object has, the more force is needed to accelerate it.</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>cont-006</t>
+          <t>cont-phys-t1-6</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sec-004</t>
+          <t>phys-t1-s5</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>formula</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>The Formula</t>
+          <t>Symmetry in Forces</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>F = m × a</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>For every action, there is an equal and opposite reaction. Forces always come in pairs.</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>cont-007</t>
+          <t>cont-phys-t1-7</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sec-004</t>
+          <t>phys-t1-s5</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>concept_helper</t>
+          <t>warning</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Shopping Cart Example</t>
+          <t>Common Mistake</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Think of pushing a shopping cart. An empty cart (less mass) accelerates quickly with a small push. A full cart (more mass) needs more force for the same acceleration!</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>Action and reaction forces act on DIFFERENT objects, so they do not cancel each other out!</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>cont-008</t>
+          <t>cont-phys-t2-8</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sec-004</t>
+          <t>phys-t2-s2</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>warning</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Mass vs Weight</t>
+          <t>Physics Definition of Work</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Mass is the amount of matter (kg) and stays constant. Weight is the force of gravity on that mass (N) and changes based on location. On the Moon, your weight would be less but your mass stays the same!</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>In physics, work is done only when a force moves an object. Pushing a wall and not moving it means zero work is done!</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1516937941348-c096b542b9c9?w=800</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>cont-009</t>
+          <t>cont-phys-t2-9</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>sec-004</t>
+          <t>phys-t2-s2</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>real_world</t>
+          <t>formula</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Car Braking</t>
+          <t>Work Formula</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Engineers use F = ma to calculate braking distances. More massive vehicles need stronger brakes to achieve the same deceleration as lighter vehicles.</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>W = F \cdot d</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>cont-010</t>
+          <t>cont-phys-t2-10</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>sec-005</t>
+          <t>phys-t2-s3</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Action and Reaction</t>
+          <t>Kinetic vs Potential</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Newton's Third Law states that for every action, there is an equal and opposite reaction. When object A exerts a force on object B, object B exerts an equal force back on object A in the opposite direction.</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>A roller coaster at the top has high Potential Energy. As it falls, it converts to Kinetic Energy.</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>cont-011</t>
+          <t>cont-phys-t2-11</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>sec-005</t>
+          <t>phys-t2-s3</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>concept_helper</t>
+          <t>video</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Jumping Example</t>
+          <t>Roller Coaster Physics</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>When you jump, your feet push down on the ground (action). The ground pushes back up on your feet with equal force (reaction). This reaction force is what propels you upward!</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Watch how energy transforms.</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="inlineStr"/>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Jnj8mc04r9E</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>cont-012</t>
+          <t>cont-phys-t2-12</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>sec-005</t>
+          <t>phys-t2-s4</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>real_world</t>
+          <t>concept_helper</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Rocket Propulsion</t>
+          <t>Law of Conservation</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Rockets work by pushing hot gases downward. The gases push back on the rocket with equal force, propelling it upward. This is Newton's Third Law in action!</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>Energy cannot be created or destroyed, only transformed.</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="inlineStr"/>
+      <c r="H13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>cont-013</t>
+          <t>cont-phys-t3-13</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>sec-009</t>
+          <t>phys-t3-s2</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -3129,29 +4306,33 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Understanding Work</t>
+          <t>Electric Circuits</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>In physics, work is done when a force causes an object to move. Work is only done when there is movement in the direction of the applied force.</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>A closed loop that allows current to flow. Requires a source (battery), load (bulb), and wires.</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1549419163-e380e22784cb?w=800</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>cont-014</t>
+          <t>cont-phys-t3-14</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>sec-009</t>
+          <t>phys-t3-s3</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -3161,371 +4342,887 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Work Formula</t>
+          <t>Ohm's Law</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>W = F × d × cos(θ)</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>V = I \cdot R</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>cont-015</t>
+          <t>cont-phys-t3-15</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>sec-009</t>
+          <t>phys-t3-s3</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>concept_helper</t>
+          <t>real_world</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Carrying Books</t>
+          <t>Resistors</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>If you carry a stack of books horizontally across a room, you're NOT doing work on them in physics terms! The force you apply is upward (against gravity) but the movement is horizontal.</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>Electronics use resistors to control current so delicate components don't burn out.</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="inlineStr"/>
+      <c r="H16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>cont-016</t>
+          <t>cont-math-t1-16</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>sec-009</t>
+          <t>math-t1-s2</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>warning</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Zero Work Situations</t>
+          <t>What is Algebra?</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>No work is done when: (1) No movement occurs, (2) Force is perpendicular to movement, (3) No force is applied. Holding a heavy box still requires effort but does zero physics work!</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>Algebra is generalized arithmetic. We use letters to represent numbers we don't know yet.</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="inlineStr"/>
+      <c r="H17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>cont-017</t>
+          <t>cont-math-t1-17</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>sec-010</t>
+          <t>math-t1-s3</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>concept_helper</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Forms of Energy</t>
+          <t>Like Terms</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Energy exists in many forms. The two main mechanical forms are kinetic energy (energy of motion) and potential energy (stored energy).</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>You can only add terms if they have the same variable part. 2x + 3x = 5x, but 2x + 3y cannot be combined.</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>cont-018</t>
+          <t>cont-math-t1-18</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>sec-010</t>
+          <t>math-t1-s3</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>formula</t>
+          <t>warning</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Kinetic Energy</t>
+          <t>Watch the powers</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>KE = ½mv²</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>x and x² are NOT like terms!</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>cont-019</t>
+          <t>cont-math-t2-19</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>sec-010</t>
+          <t>math-t2-s2</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>formula</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Gravitational Potential Energy</t>
+          <t>Triangle Types</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>PE = mgh</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>Triangles can be classified by sides (equilateral, isosceles, scalene) or angles (acute, obtuse, right).</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1616469829941-c7200ed5dabd?w=800</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>cont-020</t>
+          <t>cont-math-t2-20</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>sec-010</t>
+          <t>math-t2-s3</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>concept_helper</t>
+          <t>formula</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Roller Coaster</t>
+          <t>Pythagorean Theorem</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>At the top of a roller coaster, you have maximum potential energy. As you descend, PE converts to KE. At the bottom, KE is maximum. The total energy stays constant!</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>a^2 + b^2 = c^2</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>cont-021</t>
+          <t>cont-math-t2-21</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>sec-016</t>
+          <t>math-t2-s3</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>The Building Blocks</t>
+          <t>Usage</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Atoms are the fundamental building blocks of all matter. Everything around you - the air, water, your body - is made of atoms. They are incredibly tiny, about 0.1 to 0.5 nanometers in diameter.</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Used to find a missing side in a right-angled triangle.</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>cont-022</t>
+          <t>cont-math-t3-22</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>sec-016</t>
+          <t>math-t3-s2</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>concept_helper</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Size Comparison</t>
+          <t>The Scale</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>If an atom were the size of a football stadium, the nucleus would be like a marble at the center. Most of the atom is empty space!</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Probability ranges from 0 (Impossible) to 1 (Certain).</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="inlineStr"/>
+      <c r="H23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>cont-023</t>
+          <t>cont-math-t3-23</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>sec-017</t>
+          <t>math-t3-s3</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>formula</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Inside the Atom</t>
+          <t>Basic Probability</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Atoms consist of three main subatomic particles: protons (positive charge), neutrons (no charge), and electrons (negative charge). Protons and neutrons are in the nucleus; electrons orbit around it.</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>P(A) = \frac{\text{favorable outcomes}}{\text{total outcomes}}</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>cont-024</t>
+          <t>cont-math-t3-24</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>sec-017</t>
+          <t>math-t3-s3</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>warning</t>
+          <t>real_world</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Common Misconception</t>
+          <t>Dice</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Electrons do not orbit like planets! They exist in "probability clouds" called orbitals. We can only predict where an electron is likely to be found.</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Rolling a 6 on a standard die has a 1/6 chance.</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1595113316349-9fa4eb24f884?w=800</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>cont-025</t>
+          <t>cont-chem-t1-25</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>sec-017</t>
+          <t>chem-t1-s2</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>introduction</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Building Blocks</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>All matter is made of atoms. They are the smallest unit of an element.</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1614730341194-75c60740a070?w=800</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>cont-chem-t1-26</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>chem-t1-s3</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Inside the Atom</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Protons (+ charge) and Neutrons (no charge) are in the center. Electrons (- charge) zoom around the outside.</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>cont-chem-t1-27</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>chem-t1-s3</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Atomic Model</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Visualizing the atom.</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=IO9WS_HNmyg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>cont-chem-t2-28</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2-s2</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>introduction</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>The Map of Elements</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>The periodic table organizes all known elements by atomic number and chemical properties.</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1603126857599-f6e157fa2fe6?w=800</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>cont-chem-t2-29</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2-s3</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>concept_helper</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Navigation</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Columns are called Groups (elements behave similarly). Rows are called Periods.</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>cont-chem-t2-30</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>chem-t2-s3</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
           <t>real_world</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>Why It Matters</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Understanding atomic structure helps us create new materials, develop medicines, and generate nuclear energy. The properties of every element depend on its atomic structure!</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Noble Gases</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Group 18 elements are "Noble Gases" - they are very stable and don't like to react (like Neon signs).</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>cont-chem-t3-31</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3-s2</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Stability</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Atoms bond to become stable, usually by getting a full outer shell of electrons.</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>cont-chem-t3-32</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3-s3</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Ionic Bonding</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>One atom STEALS electrons from another. Creates + and - ions that attract.</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>cont-chem-t3-33</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>chem-t3-s3</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Covalent Bonding</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Atoms SHARE electrons. Like two people holding hands.</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1532634993-15f421e42ec0?w=800</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>cont-bio-t1-34</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1-s2</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>introduction</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Unit of Life</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Cells are the basic structural and functional units of life.</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1530210124550-912dc1381cb8?w=800</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>cont-bio-t1-35</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1-s3</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>Mitochondria</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>The POWERHOUSE of the cell. Generates energy (ATP).</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>cont-bio-t1-36</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>bio-t1-s3</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Nucleus</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>The BRAIN. Contains DNA and controls cell activity.</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>cont-bio-t2-37</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>bio-t2-s2</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>introduction</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Blueprint of Life</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>DNA holds the instructions for building and operating an organism.</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1576086213369-97a306d36557?w=800</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>cont-bio-t2-38</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>bio-t2-s3</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>concept_helper</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Dominant vs Recessive</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Dominant traits (like brown eyes) often hide recessive traits (like blue eyes).</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>cont-bio-t3-39</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3-s2</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>introduction</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>Web of Life</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>An ecosystem includes all living things in an area interacting with each other and their environment.</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1470071459604-3b5ec3a7fe05?w=800</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>cont-bio-t3-40</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3-s3</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Producers vs Consumers</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Plants produce energy from sun. Animals consume plants or other animals.</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3546,12 +5243,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
     <col width="17" customWidth="1" min="9" max="9"/>
@@ -3631,17 +5328,17 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>form-001</t>
+          <t>form-phys-t1-1</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>F = m × a</t>
+          <t>F = m \cdot a</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -3698,22 +5395,22 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>form-002</t>
+          <t>form-phys-t2-1</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>W = mg</t>
+          <t>W = F \cdot d</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Weight Formula</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -3723,74 +5420,74 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Force</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Distance</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
         <is>
           <t>m</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>Mass</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>Gravity</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>m/s²</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>form-003</t>
+          <t>form-phys-t2-2</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>W = F × d</t>
+          <t>KE = \frac{1}{2}mv^2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Work Formula</t>
+          <t>Kinetic Energy</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>KE</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3800,188 +5497,176 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>m</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>Force</t>
+          <t>Mass</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>v</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>Distance</t>
+          <t>Velocity</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>m/s</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>form-004</t>
+          <t>form-phys-t3-1</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>phys-t3</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>KE = ½mv²</t>
+          <t>V = I \cdot R</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Kinetic Energy</t>
+          <t>Ohm's Law</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>KE</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Kinetic Energy</t>
+          <t>Voltage</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>V</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>I</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>Mass</t>
+          <t>Current</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>R</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>Velocity</t>
+          <t>Resistance</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>m/s</t>
+          <t>Ω</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>form-005</t>
+          <t>form-math-t2-1</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>math-t2</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>PE = mgh</t>
+          <t>a^2 + b^2 = c^2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Potential Energy</t>
+          <t>Pythagorean Theorem</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>c</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Potential Energy</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
+          <t>Hypotenuse</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr"/>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>a</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Mass</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
+          <t>Side A</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr"/>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>b</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>Side B</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>form-006</t>
+          <t>form-math-t3-1</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>math-t3</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>P = W/t</t>
+          <t>P(A) = \frac{n(A)}{n(S)}</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Power Formula</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -3991,44 +5676,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr"/>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>n(A)</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>Work</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
+          <t>Favorable</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr"/>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>n(S)</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4041,7 +5714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4049,13 +5722,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="24" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
     <col width="50" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
@@ -4116,37 +5789,37 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>q-001</t>
+          <t>quiz-phys-t1-1</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>If a 10 kg object accelerates at 2 m/s², what is the net force acting on it?</t>
+          <t>Which property of an object determines its inertia?</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>5 N</t>
+          <t>Volume</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>20 N</t>
+          <t>Mass</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>12 N</t>
+          <t>Weight</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>8 N</t>
+          <t>Velocity</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -4156,101 +5829,97 @@
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Using F = m × a: F = 10 kg × 2 m/s² = 20 N</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>Mass is a direct measure of inertia.</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>q-002</t>
+          <t>quiz-phys-t1-2</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t1</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Newton's First Law is also known as the law of:</t>
+          <t>If you double the force on an object, what happens to its acceleration?</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Acceleration</t>
+          <t>Doubles</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Action-Reaction</t>
+          <t>Halves</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Inertia</t>
+          <t>Quadruples</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Gravity</t>
+          <t>Stays same</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>Newton's First Law describes inertia - the tendency of objects to resist changes in motion.</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>Acceleration is directly proportional to force (F=ma).</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>q-003</t>
+          <t>quiz-phys-t2-1</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>When you push against a wall, the wall pushes back. This demonstrates:</t>
+          <t>What is the unit for Work?</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>First Law</t>
+          <t>Newton</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Second Law</t>
+          <t>Watt</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Third Law</t>
+          <t>Joule</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Law of Gravity</t>
+          <t>Meter</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -4260,309 +5929,297 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>Newton's Third Law states that forces always come in equal and opposite pairs.</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>Work is measured in Joules (N·m).</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>q-004</t>
+          <t>quiz-phys-t2-2</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>A car has a mass of 1000 kg. What force is needed to accelerate it at 3 m/s²?</t>
+          <t>A ball held 2m high has what type of energy?</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>333 N</t>
+          <t>Kinetic</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1000 N</t>
+          <t>Gravitational Potential</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3000 N</t>
+          <t>Elastic</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3003 N</t>
+          <t>Thermal</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>F = m × a = 1000 kg × 3 m/s² = 3000 N</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>It has potential due to gravity.</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>q-005</t>
+          <t>quiz-phys-t3-1</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>topic-001</t>
+          <t>phys-t3</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Which has more inertia - a bowling ball or a tennis ball?</t>
+          <t>What flows in a circuit?</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Tennis ball</t>
+          <t>Protons</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Bowling ball</t>
+          <t>Neutrons</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>They have equal inertia</t>
+          <t>Electrons</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>Neither has inertia</t>
+          <t>Atoms</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Inertia depends on mass. The bowling ball has more mass, so it has more inertia.</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>Current is the flow of electrons.</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>q-006</t>
+          <t>quiz-math-t1-1</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>math-t1</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>How much work is done when a 50 N force moves an object 4 meters?</t>
+          <t>Simplify: 3x + 4y - x</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12.5 J</t>
+          <t>7xy</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46 J</t>
+          <t>2x + 4y</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54 J</t>
+          <t>6xy</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>200 J</t>
+          <t>3x + 3y</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>W = F × d = 50 N × 4 m = 200 J</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>Combine 3x and -x to get 2x. 4y stays separate.</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>q-007</t>
+          <t>quiz-math-t2-1</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>math-t2</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>A ball at the top of a hill has maximum:</t>
+          <t>Which triangle has all equal sides?</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Kinetic energy</t>
+          <t>Isosceles</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Potential energy</t>
+          <t>Scalene</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>Thermal energy</t>
+          <t>Equilateral</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>Sound energy</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>At the top of a hill, the ball has maximum height, giving it maximum gravitational potential energy.</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>Equi-lateral means equal sides.</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>q-008</t>
+          <t>quiz-math-t3-1</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>math-t3</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>If you double the velocity of an object, its kinetic energy:</t>
+          <t>Probability of flipping heads?</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Doubles</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Triples</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>Quadruples</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>Stays the same</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>KE = ½mv². Since v is squared, doubling velocity quadruples kinetic energy (2² = 4).</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>1 favorable (heads) / 2 total (heads, tails) = 0.5</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>q-009</t>
+          <t>quiz-chem-t1-1</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>chem-t1</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>The SI unit of power is:</t>
+          <t>Which particle has a positive charge?</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Joule</t>
+          <t>Electron</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Newton</t>
+          <t>Neutron</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Watt</t>
+          <t>Proton</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>Pascal</t>
+          <t>Photon</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -4572,101 +6229,97 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>Power is measured in Watts (W). 1 Watt = 1 Joule per second.</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>Protons are positive (+)</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>q-010</t>
+          <t>quiz-chem-t2-1</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>topic-002</t>
+          <t>chem-t2</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Which involves doing NO work in physics terms?</t>
+          <t>Elements in the same column usually have...</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Pushing a car</t>
+          <t>Same mass</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Lifting a book</t>
+          <t>Similar properties</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Holding a bag still</t>
+          <t>Same atomic number</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>Pulling a wagon</t>
+          <t>Different states</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>Holding a bag still involves no displacement, so no work is done (W = F × d, and d = 0).</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>Groups (columns) share chemical properties.</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>q-011</t>
+          <t>quiz-chem-t3-1</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>chem-t3</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>The nucleus of an atom contains:</t>
+          <t>In a covalent bond, electrons are...</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Electrons only</t>
+          <t>Transferred</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Protons only</t>
+          <t>Destroyed</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Protons and neutrons</t>
+          <t>Shared</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Electrons and neutrons</t>
+          <t>Doubled</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -4676,101 +6329,97 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>The nucleus contains protons (positive) and neutrons (neutral). Electrons orbit outside the nucleus.</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>Co-valent means sharing valence electrons.</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>q-012</t>
+          <t>quiz-bio-t1-1</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>bio-t1</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>The atomic number of an element is determined by the number of:</t>
+          <t>Which organelle produces energy?</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Neutrons</t>
+          <t>Ribosome</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Protons</t>
+          <t>Nucleus</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Electrons</t>
+          <t>Mitochondria</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Nucleons</t>
+          <t>Vacuole</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>The atomic number equals the number of protons. This defines what element an atom is.</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>Mitochondria perform cellular respiration to make ATP.</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>q-013</t>
+          <t>quiz-bio-t2-1</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>bio-t2</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Which particle has a negative charge?</t>
+          <t>What molecule carries genetic info?</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Proton</t>
+          <t>Protein</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Neutron</t>
+          <t>Carbohydrate</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Electron</t>
+          <t>DNA</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>Nucleus</t>
+          <t>Lipid</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -4780,117 +6429,61 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>Electrons carry a negative charge (-1), protons carry positive (+1), and neutrons are neutral (0).</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>Deoxyribonucleic Acid.</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>q-014</t>
+          <t>quiz-bio-t3-1</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>topic-006</t>
+          <t>bio-t3</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Most of an atom is:</t>
+          <t>Which is an abiotic factor?</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Solid matter</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Empty space</t>
+          <t>Bacteria</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Filled with electrons</t>
+          <t>Sunlight</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>The nucleus</t>
+          <t>Wolf</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>If an atom were a stadium, the nucleus would be a marble. Most of the atom is empty space!</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>q-015</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>topic-006</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>In a neutral atom, the number of protons equals the number of:</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Neutrons</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Electrons</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>Nucleons</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>Isotopes</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>In a neutral atom, positive protons balance negative electrons, so their numbers are equal.</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>Sunlight is non-living.</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4904,7 +6497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4914,9 +6507,9 @@
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="34" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="26" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4949,7 +6542,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ach-001</t>
+          <t>first-login</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -4969,14 +6562,14 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>first_login</t>
+          <t>Login for the first time</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>ach-002</t>
+          <t>first-quiz</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -4986,7 +6579,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Quiz Starter</t>
+          <t>First Quiz</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -4996,41 +6589,41 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>complete_quiz_1</t>
+          <t>Complete any quiz</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>ach-003</t>
+          <t>streak-5</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>Flame</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Perfect Score</t>
+          <t>5-Day Streak</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Score 100% on any quiz</t>
+          <t>Study 5 days in a row</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>perfect_quiz</t>
+          <t>streak &gt;= 5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>ach-004</t>
+          <t>streak-10</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -5040,179 +6633,125 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5-Day Streak</t>
+          <t>10-Day Streak</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Study 5 days in a row</t>
+          <t>Study 10 days in a row</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>streak_5</t>
+          <t>streak &gt;= 10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>ach-005</t>
+          <t>topic-complete</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Flame</t>
+          <t>CheckCircle2</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10-Day Streak</t>
+          <t>Topic Master</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Study 10 days in a row</t>
+          <t>Complete any topic</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>streak_10</t>
+          <t>Any topic progress = 100</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>ach-006</t>
+          <t>subject-50</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>CheckCircle2</t>
+          <t>Trophy</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Topic Master</t>
+          <t>Halfway There</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Complete any topic fully</t>
+          <t>50% in any subject</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>complete_topic</t>
+          <t>Any subject progress &gt;= 50</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>ach-007</t>
+          <t>perfect-quiz</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Trophy</t>
+          <t>Star</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Subject Champion</t>
+          <t>Perfect Score</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Complete all topics in a subject</t>
+          <t>Score 100% on a quiz</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>complete_subject</t>
+          <t>Any quiz score = 100</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>ach-008</t>
+          <t>all-subjects</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>BookOpen</t>
+          <t>Award</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Bookworm</t>
+          <t>Well Rounded</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Spend 60 minutes studying</t>
+          <t>Study all 4 subjects</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>study_time_60</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>ach-009</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Target</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Goal Getter</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Complete 10 quizzes</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>complete_quiz_10</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>ach-010</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Award</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>Physics Pro</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Complete all Physics topics</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>complete_physics</t>
+          <t>All subjects accessed</t>
         </is>
       </c>
     </row>

--- a/public/StudyHub_Complete_Data.xlsx
+++ b/public/StudyHub_Complete_Data.xlsx
@@ -3832,7 +3832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4291,27 +4291,27 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>cont-phys-t3-13</t>
+          <t>cont-phys-t2-13</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>phys-t3-s2</t>
+          <t>phys-t2-s4</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>flowchart</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Electric Circuits</t>
+          <t>Energy Transformation</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>A closed loop that allows current to flow. Requires a source (battery), load (bulb), and wires.</t>
+          <t>Visualizing how Potential Energy converts to Kinetic Energy.</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>https://images.unsplash.com/photo-1549419163-e380e22784cb?w=800</t>
+          <t>https://mermaid.ink/img/pako:eNpVkMtqwzAQRX9FzKqF_IAeCqWbQsFQAqG7tciyxBZiS0ZSCyX_Xsdf4tJldTPn3DszGtToFCpoeD3pW_QeXwZ0h8-z_sQ12p05sB_tQ4B794dY6_tHj9F59GfW_4E-sB-sO9Z_sBfsC_vAPrAf7IA11v2wF-wL-8A-sB_s4J-x0k5bCg0ZylJyoOQYpZJMy5qrpRCSk0pWUp5S8oOQnJSkC_lLyU_2z7-Xw6GgUCqVbLhQ0pCpkHJYl0qJ4uO6Ff_2B2HqSgM?type=png</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr"/>
@@ -4332,28 +4332,32 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>phys-t3-s3</t>
+          <t>phys-t3-s2</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>formula</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Ohm's Law</t>
+          <t>Electric Circuits</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>V = I \cdot R</t>
+          <t>A closed loop that allows current to flow. Requires a source (battery), load (bulb), and wires.</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1549419163-e380e22784cb?w=800</t>
+        </is>
+      </c>
       <c r="H15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
@@ -4369,17 +4373,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>real_world</t>
+          <t>formula</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Resistors</t>
+          <t>Ohm's Law</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Electronics use resistors to control current so delicate components don't burn out.</t>
+          <t>V = I \cdot R</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
@@ -4391,27 +4395,27 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>cont-math-t1-16</t>
+          <t>cont-phys-t3-16</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>math-t1-s2</t>
+          <t>phys-t3-s3</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>real_world</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>What is Algebra?</t>
+          <t>Resistors</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Algebra is generalized arithmetic. We use letters to represent numbers we don't know yet.</t>
+          <t>Electronics use resistors to control current so delicate components don't burn out.</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
@@ -4428,22 +4432,22 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>math-t1-s3</t>
+          <t>math-t1-s2</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>concept_helper</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Like Terms</t>
+          <t>What is Algebra?</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>You can only add terms if they have the same variable part. 2x + 3x = 5x, but 2x + 3y cannot be combined.</t>
+          <t>Algebra is generalized arithmetic. We use letters to represent numbers we don't know yet.</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
@@ -4465,17 +4469,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>warning</t>
+          <t>concept_helper</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Watch the powers</t>
+          <t>Like Terms</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>x and x² are NOT like terms!</t>
+          <t>You can only add terms if they have the same variable part. 2x + 3x = 5x, but 2x + 3y cannot be combined.</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
@@ -4487,37 +4491,33 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>cont-math-t2-19</t>
+          <t>cont-math-t1-19</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>math-t2-s2</t>
+          <t>math-t1-s3</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>warning</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Triangle Types</t>
+          <t>Watch the powers</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Triangles can be classified by sides (equilateral, isosceles, scalene) or angles (acute, obtuse, right).</t>
+          <t>x and x² are NOT like terms!</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>https://images.unsplash.com/photo-1616469829941-c7200ed5dabd?w=800</t>
-        </is>
-      </c>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
@@ -4528,28 +4528,32 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>math-t2-s3</t>
+          <t>math-t2-s2</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>formula</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Pythagorean Theorem</t>
+          <t>Triangle Types</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>a^2 + b^2 = c^2</t>
+          <t>Triangles can be classified by sides (equilateral, isosceles, scalene) or angles (acute, obtuse, right).</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1616469829941-c7200ed5dabd?w=800</t>
+        </is>
+      </c>
       <c r="H21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
@@ -4565,17 +4569,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>formula</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Usage</t>
+          <t>Pythagorean Theorem</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Used to find a missing side in a right-angled triangle.</t>
+          <t>a^2 + b^2 = c^2</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
@@ -4587,12 +4591,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>cont-math-t3-22</t>
+          <t>cont-math-t2-22</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>math-t3-s2</t>
+          <t>math-t2-s3</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -4602,12 +4606,12 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>The Scale</t>
+          <t>Usage</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Probability ranges from 0 (Impossible) to 1 (Certain).</t>
+          <t>Used to find a missing side in a right-angled triangle.</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
@@ -4624,22 +4628,22 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>math-t3-s3</t>
+          <t>math-t3-s2</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>formula</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Basic Probability</t>
+          <t>The Scale</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>P(A) = \frac{\text{favorable outcomes}}{\text{total outcomes}}</t>
+          <t>Probability ranges from 0 (Impossible) to 1 (Certain).</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
@@ -4661,53 +4665,49 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>real_world</t>
+          <t>formula</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Dice</t>
+          <t>Basic Probability</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Rolling a 6 on a standard die has a 1/6 chance.</t>
+          <t>P(A) = \frac{\text{favorable outcomes}}{\text{total outcomes}}</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>https://images.unsplash.com/photo-1595113316349-9fa4eb24f884?w=800</t>
-        </is>
-      </c>
+      <c r="G25" s="2" t="inlineStr"/>
       <c r="H25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>cont-chem-t1-25</t>
+          <t>cont-math-t3-25</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>chem-t1-s2</t>
+          <t>math-t3-s3</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>real_world</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Building Blocks</t>
+          <t>Dice</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>All matter is made of atoms. They are the smallest unit of an element.</t>
+          <t>Rolling a 6 on a standard die has a 1/6 chance.</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>https://images.unsplash.com/photo-1614730341194-75c60740a070?w=800</t>
+          <t>https://images.unsplash.com/photo-1595113316349-9fa4eb24f884?w=800</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr"/>
@@ -4728,28 +4728,32 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>chem-t1-s3</t>
+          <t>chem-t1-s2</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Inside the Atom</t>
+          <t>Building Blocks</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Protons (+ charge) and Neutrons (no charge) are in the center. Electrons (- charge) zoom around the outside.</t>
+          <t>All matter is made of atoms. They are the smallest unit of an element.</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1614730341194-75c60740a070?w=800</t>
+        </is>
+      </c>
       <c r="H27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
@@ -4765,64 +4769,60 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Atomic Model</t>
+          <t>Inside the Atom</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Visualizing the atom.</t>
+          <t>Protons (+ charge) and Neutrons (no charge) are in the center. Electrons (- charge) zoom around the outside.</t>
         </is>
       </c>
       <c r="F28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=IO9WS_HNmyg</t>
-        </is>
-      </c>
+      <c r="H28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>cont-chem-t2-28</t>
+          <t>cont-chem-t1-28</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>chem-t2-s2</t>
+          <t>chem-t1-s3</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>video</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>The Map of Elements</t>
+          <t>Atomic Model</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>The periodic table organizes all known elements by atomic number and chemical properties.</t>
+          <t>Visualizing the atom.</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>https://images.unsplash.com/photo-1603126857599-f6e157fa2fe6?w=800</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=IO9WS_HNmyg</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -4832,28 +4832,32 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>chem-t2-s3</t>
+          <t>chem-t2-s2</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>concept_helper</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Navigation</t>
+          <t>The Map of Elements</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Columns are called Groups (elements behave similarly). Rows are called Periods.</t>
+          <t>The periodic table organizes all known elements by atomic number and chemical properties.</t>
         </is>
       </c>
       <c r="F30" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1603126857599-f6e157fa2fe6?w=800</t>
+        </is>
+      </c>
       <c r="H30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
@@ -4869,17 +4873,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>real_world</t>
+          <t>concept_helper</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Noble Gases</t>
+          <t>Navigation</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Group 18 elements are "Noble Gases" - they are very stable and don't like to react (like Neon signs).</t>
+          <t>Columns are called Groups (elements behave similarly). Rows are called Periods.</t>
         </is>
       </c>
       <c r="F31" s="2" t="n">
@@ -4891,27 +4895,27 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>cont-chem-t3-31</t>
+          <t>cont-chem-t2-31</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>chem-t3-s2</t>
+          <t>chem-t2-s3</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>real_world</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Stability</t>
+          <t>Noble Gases</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Atoms bond to become stable, usually by getting a full outer shell of electrons.</t>
+          <t>Group 18 elements are "Noble Gases" - they are very stable and don't like to react (like Neon signs).</t>
         </is>
       </c>
       <c r="F32" s="2" t="n">
@@ -4928,7 +4932,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>chem-t3-s3</t>
+          <t>chem-t3-s2</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -4938,12 +4942,12 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Ionic Bonding</t>
+          <t>Stability</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>One atom STEALS electrons from another. Creates + and - ions that attract.</t>
+          <t>Atoms bond to become stable, usually by getting a full outer shell of electrons.</t>
         </is>
       </c>
       <c r="F33" s="2" t="n">
@@ -4970,48 +4974,44 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Covalent Bonding</t>
+          <t>Ionic Bonding</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Atoms SHARE electrons. Like two people holding hands.</t>
+          <t>One atom STEALS electrons from another. Creates + and - ions that attract.</t>
         </is>
       </c>
       <c r="F34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>https://images.unsplash.com/photo-1532634993-15f421e42ec0?w=800</t>
-        </is>
-      </c>
+      <c r="G34" s="2" t="inlineStr"/>
       <c r="H34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>cont-bio-t1-34</t>
+          <t>cont-chem-t3-34</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>bio-t1-s2</t>
+          <t>chem-t3-s3</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Unit of Life</t>
+          <t>Covalent Bonding</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Cells are the basic structural and functional units of life.</t>
+          <t>Atoms SHARE electrons. Like two people holding hands.</t>
         </is>
       </c>
       <c r="F35" s="2" t="n">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>https://images.unsplash.com/photo-1530210124550-912dc1381cb8?w=800</t>
+          <t>https://images.unsplash.com/photo-1532634993-15f421e42ec0?w=800</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr"/>
@@ -5032,28 +5032,32 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>bio-t1-s3</t>
+          <t>bio-t1-s2</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Mitochondria</t>
+          <t>Unit of Life</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>The POWERHOUSE of the cell. Generates energy (ATP).</t>
+          <t>Cells are the basic structural and functional units of life.</t>
         </is>
       </c>
       <c r="F36" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1530210124550-912dc1381cb8?w=800</t>
+        </is>
+      </c>
       <c r="H36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
@@ -5074,12 +5078,12 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Nucleus</t>
+          <t>Mitochondria</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>The BRAIN. Contains DNA and controls cell activity.</t>
+          <t>The POWERHOUSE of the cell. Generates energy (ATP).</t>
         </is>
       </c>
       <c r="F37" s="2" t="n">
@@ -5091,37 +5095,33 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>cont-bio-t2-37</t>
+          <t>cont-bio-t1-37</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>bio-t2-s2</t>
+          <t>bio-t1-s3</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>text</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Blueprint of Life</t>
+          <t>Nucleus</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>DNA holds the instructions for building and operating an organism.</t>
+          <t>The BRAIN. Contains DNA and controls cell activity.</t>
         </is>
       </c>
       <c r="F38" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>https://images.unsplash.com/photo-1576086213369-97a306d36557?w=800</t>
-        </is>
-      </c>
+      <c r="G38" s="2" t="inlineStr"/>
       <c r="H38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
@@ -5132,64 +5132,64 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>bio-t2-s3</t>
+          <t>bio-t2-s2</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>concept_helper</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Dominant vs Recessive</t>
+          <t>Blueprint of Life</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Dominant traits (like brown eyes) often hide recessive traits (like blue eyes).</t>
+          <t>DNA holds the instructions for building and operating an organism.</t>
         </is>
       </c>
       <c r="F39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1576086213369-97a306d36557?w=800</t>
+        </is>
+      </c>
       <c r="H39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>cont-bio-t3-39</t>
+          <t>cont-bio-t2-39</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>bio-t3-s2</t>
+          <t>bio-t2-s3</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>concept_helper</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Web of Life</t>
+          <t>Dominant vs Recessive</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>An ecosystem includes all living things in an area interacting with each other and their environment.</t>
+          <t>Dominant traits (like brown eyes) often hide recessive traits (like blue eyes).</t>
         </is>
       </c>
       <c r="F40" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>https://images.unsplash.com/photo-1470071459604-3b5ec3a7fe05?w=800</t>
-        </is>
-      </c>
+      <c r="G40" s="2" t="inlineStr"/>
       <c r="H40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
@@ -5200,29 +5200,65 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>bio-t3-s3</t>
+          <t>bio-t3-s2</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Producers vs Consumers</t>
+          <t>Web of Life</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Plants produce energy from sun. Animals consume plants or other animals.</t>
+          <t>An ecosystem includes all living things in an area interacting with each other and their environment.</t>
         </is>
       </c>
       <c r="F41" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>https://images.unsplash.com/photo-1470071459604-3b5ec3a7fe05?w=800</t>
+        </is>
+      </c>
       <c r="H41" s="2" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>cont-bio-t3-41</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>bio-t3-s3</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Producers vs Consumers</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>Plants produce energy from sun. Animals consume plants or other animals.</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5235,7 +5271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5246,9 +5282,9 @@
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="26" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
     <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
     <col width="17" customWidth="1" min="9" max="9"/>
@@ -5529,179 +5565,246 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>form-phys-t3-1</t>
+          <t>form-phys-t2-3</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>phys-t3</t>
+          <t>phys-t2</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>V = I \cdot R</t>
+          <t>PE_g = mgh</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Ohm's Law</t>
+          <t>Gravitational Potential Energy</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Voltage</t>
+          <t>Potential Energy</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>J</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>m</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>Current</t>
+          <t>Mass</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>h</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>Resistance</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>Ω</t>
+          <t>m</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>form-math-t2-1</t>
+          <t>form-phys-t3-1</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>math-t2</t>
+          <t>phys-t3</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>a^2 + b^2 = c^2</t>
+          <t>V = I \cdot R</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Pythagorean Theorem</t>
+          <t>Ohm's Law</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>V</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Hypotenuse</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr"/>
+          <t>Voltage</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>I</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Side A</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr"/>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>R</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>Side B</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr"/>
+          <t>Resistance</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>Ω</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>form-math-t3-1</t>
+          <t>form-math-t2-1</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>math-t3</t>
+          <t>math-t2</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>P(A) = \frac{n(A)}{n(S)}</t>
+          <t>a^2 + b^2 = c^2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Pythagorean Theorem</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>c</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Hypotenuse</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>n(A)</t>
+          <t>a</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>Favorable</t>
+          <t>Side A</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr"/>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>Side B</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>form-math-t3-1</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>math-t3</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>P(A) = \frac{n(A)}{n(S)}</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>n(A)</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>Favorable</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>n(S)</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
